--- a/RAG.xlsx
+++ b/RAG.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B160D-3FA1-47E2-8049-18D3950D6DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF32F3C8-C30F-4363-A9DB-A7E781A91CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77B565CF-7282-44C9-BDFE-E7ADCDDF6272}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{77B565CF-7282-44C9-BDFE-E7ADCDDF6272}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
   <si>
     <t>1. Cấu trúc JSON cho Checklist</t>
   </si>
@@ -1912,6 +1913,21 @@
       </rPr>
       <t>: Nếu checklist chứa nhiều đoạn code phức tạp và bạn có tài nguyên tính toán mạnh.</t>
     </r>
+  </si>
+  <si>
+    <t>https://github.com/HKUDS/LightRAG</t>
+  </si>
+  <si>
+    <t>A high-performance Embedding model is essential for RAG.</t>
+  </si>
+  <si>
+    <t>Embedding Model:</t>
+  </si>
+  <si>
+    <t>We recommend using mainstream multilingual Embedding models, such as: BAAI/bge-m3 and text-embedding-3-large.</t>
+  </si>
+  <si>
+    <t>Important Note: The Embedding model must be determined before document indexing, and the same model must be used during the document query phase.</t>
   </si>
 </sst>
 </file>
@@ -3093,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E012C50-E20B-4113-8E43-89D9A28DD8AF}">
   <dimension ref="D3:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
@@ -3295,4 +3311,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF6754B-E09F-4A45-9A10-EC7E4F183282}">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>